--- a/Factures_Excel/1455 - Concept Convoyeur Debien.xlsx
+++ b/Factures_Excel/1455 - Concept Convoyeur Debien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF38AF9-5BB2-4DFC-A338-194E327E9777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EAD0D2-3403-4A96-B8AB-921822393E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-16305" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-10-19" sheetId="4" r:id="rId1"/>
@@ -29,9 +29,11 @@
     <sheet name="Activités" sheetId="5" r:id="rId14"/>
     <sheet name="2024-09-06 - 24-24494" sheetId="18" r:id="rId15"/>
     <sheet name="2024-12-08 - 24-24655" sheetId="19" r:id="rId16"/>
+    <sheet name="2025-03-30 - 25-24837" sheetId="20" r:id="rId17"/>
+    <sheet name="2025-05-05 - 25-24921" sheetId="21" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -60,6 +62,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'16-04-21'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'20-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-08 - 24-24655'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-30 - 25-24837'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'2025-05-05 - 25-24921'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'24-03-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'24-06-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'29-01-21'!$A$1:$F$89</definedName>
@@ -82,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="145">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -498,6 +502,27 @@
   <si>
     <t xml:space="preserve"> - Analyse des diverses questions de Christiane et réponses ;</t>
   </si>
+  <si>
+    <t>Le 30 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture, analyse et rédaction de divers courriels avec vous;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t>Le 5 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24921</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de vos différentes préoccupations et répondre aux différentes questions ;</t>
+  </si>
 </sst>
 </file>
 
@@ -845,7 +870,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,6 +892,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1106,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1469,6 +1500,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1541,6 +1575,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,9 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2025,6 +2059,138 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16385" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E95AC60-AAA2-32D5-99C5-5D078EEB47A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17409" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C397A081-5CB1-D5C8-0A33-C12DA4529AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3232,14 +3398,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3260,285 +3426,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167" t="s">
+      <c r="B51" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167" t="s">
+      <c r="B55" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167" t="s">
+      <c r="B61" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3568,17 +3734,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3685,19 +3851,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3705,9 +3871,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3742,31 +3908,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3778,26 +3944,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3860,7 +4026,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4009,14 +4175,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4037,261 +4203,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4321,17 +4487,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4438,19 +4604,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4458,9 +4624,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4495,31 +4661,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4531,26 +4697,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4612,7 +4778,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4761,14 +4927,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4789,261 +4955,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5073,17 +5239,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5190,19 +5356,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5210,9 +5376,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5247,31 +5413,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5283,26 +5449,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5530,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5513,14 +5679,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5541,259 +5707,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -5823,17 +5989,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -5940,19 +6106,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5960,9 +6126,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5997,31 +6163,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6033,26 +6199,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6114,7 +6280,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6263,14 +6429,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6291,285 +6457,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167" t="s">
+      <c r="B44" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167" t="s">
+      <c r="B58" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -6599,17 +6765,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -6716,19 +6882,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6736,9 +6902,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6773,31 +6939,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6809,26 +6975,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6890,7 +7056,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6917,10 +7083,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="175"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7542,13 +7708,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8027,10 +8193,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="178" t="s">
+      <c r="B81" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="179"/>
+      <c r="C81" s="180"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>14213.79</v>
@@ -8047,30 +8213,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="180"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="182"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="183"/>
+      <c r="E83" s="183"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="184"/>
-      <c r="E84" s="184"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="185" t="s">
+      <c r="A85" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="185"/>
-      <c r="C85" s="185"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="186"/>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="187"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8090,21 +8256,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="176"/>
-      <c r="E89" s="176"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="177"/>
+      <c r="E89" s="177"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -8137,7 +8303,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -8398,13 +8564,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8882,10 +9048,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="189"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="160"/>
       <c r="E81" s="161">
         <f>E77</f>
@@ -8903,30 +9069,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="180"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="181"/>
-      <c r="E83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
       <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="183" t="s">
+      <c r="A84" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="185" t="s">
+      <c r="A85" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="185"/>
-      <c r="C85" s="185"/>
-      <c r="D85" s="185"/>
-      <c r="E85" s="185"/>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8946,14 +9112,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="190" t="s">
+      <c r="A88" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="190"/>
-      <c r="C88" s="190"/>
-      <c r="D88" s="190"/>
-      <c r="E88" s="190"/>
-      <c r="F88" s="190"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8963,6 +9129,1648 @@
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC15D52-CA6B-447D-A807-DB90CD32916D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="153">
+        <v>4</v>
+      </c>
+      <c r="D66" s="154">
+        <v>385</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>1540</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>1540</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>77</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>153.62</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>1770.62</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="191"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="161">
+        <v>1770.62</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
+      <c r="F83" s="162"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="186" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7626A-5F7C-470B-9C38-66CFAB1C8380}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="153">
+        <v>2.25</v>
+      </c>
+      <c r="D66" s="154">
+        <v>385</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>866.25</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>866.25</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>43.31</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>86.41</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>995.96999999999991</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="191"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="161">
+        <v>995.96999999999991</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
+      <c r="F83" s="162"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="186" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -9114,14 +10922,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9142,275 +10950,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167" t="s">
+      <c r="B51" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9440,17 +11248,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -9557,19 +11365,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9577,9 +11385,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9614,31 +11422,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9650,26 +11458,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9731,7 +11539,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9880,14 +11688,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9908,261 +11716,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10192,17 +12000,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10309,19 +12117,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10329,9 +12137,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10366,31 +12174,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10402,26 +12210,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10483,7 +12291,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10632,14 +12440,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10660,265 +12468,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10948,17 +12756,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11065,19 +12873,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11085,9 +12893,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11122,31 +12930,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11158,26 +12966,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11239,7 +13047,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11388,14 +13196,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11416,261 +13224,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11700,17 +13508,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11817,19 +13625,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11837,9 +13645,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11874,31 +13682,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11910,26 +13718,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11991,7 +13799,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12140,14 +13948,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12168,259 +13976,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12450,17 +14258,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12567,19 +14375,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12587,9 +14395,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12624,31 +14432,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12660,26 +14468,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12741,7 +14549,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12890,14 +14698,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12918,261 +14726,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -13202,17 +15010,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -13319,19 +15127,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -13339,9 +15147,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -13376,31 +15184,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -13412,26 +15220,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -13493,7 +15301,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13642,14 +15450,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13670,259 +15478,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -13952,17 +15760,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -14069,19 +15877,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="168" t="s">
+      <c r="B78" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -14089,9 +15897,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -14126,31 +15934,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
+      <c r="B83" s="166"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="173" t="s">
+      <c r="A84" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="169"/>
-      <c r="E85" s="169"/>
-      <c r="F85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -14162,26 +15970,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="166"/>
-      <c r="E87" s="166"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="172"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="163"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -14243,7 +16051,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14392,14 +16200,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14420,251 +16228,251 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -14694,17 +16502,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="168"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -14811,19 +16619,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="171"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="168" t="s">
+      <c r="B77" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -14831,9 +16639,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -14868,31 +16676,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="174"/>
+      <c r="E83" s="174"/>
+      <c r="F83" s="174"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="169" t="s">
+      <c r="A84" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="170"/>
+      <c r="F84" s="170"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -14904,26 +16712,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="166"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="166"/>
-      <c r="E86" s="166"/>
+      <c r="B86" s="167"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="172"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
+      <c r="B87" s="173"/>
+      <c r="C87" s="173"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="163"/>
-      <c r="C89" s="164"/>
-      <c r="D89" s="164"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -14984,7 +16792,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
